--- a/docs/icare/obf-Specimen.xlsx
+++ b/docs/icare/obf-Specimen.xlsx
@@ -232,7 +232,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -423,7 +423,7 @@
     <t>specimentreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SpecimenTreatment-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SpecimenTreatment-extension}
 </t>
   </si>
   <si>
@@ -433,7 +433,7 @@
     <t>handlingrisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-HandlingRisk-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-HandlingRisk-extension}
 </t>
   </si>
   <si>
@@ -443,7 +443,7 @@
     <t>specialhandling</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SpecialHandling-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SpecialHandling-extension}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>Specimen.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-Specimen)
 </t>
   </si>
   <si>
@@ -552,7 +552,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-patient|Group|http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Substance)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-patient|Group|http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://icaredata.org/icare/StructureDefinition/obf-Substance)
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Laterality-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
     <t>anatomicalorientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -1036,7 +1036,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://mcodeinitiative.org/us/icare/StructureDefinition/obf-Substance)</t>
+Reference(http://icaredata.org/icare/StructureDefinition/obf-Substance)</t>
   </si>
   <si>
     <t>Additive associated with container</t>

--- a/docs/icare/obf-Specimen.xlsx
+++ b/docs/icare/obf-Specimen.xlsx
@@ -232,7 +232,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -423,7 +423,7 @@
     <t>specimentreatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SpecimenTreatment-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SpecimenTreatment-extension}
 </t>
   </si>
   <si>
@@ -433,7 +433,7 @@
     <t>handlingrisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-HandlingRisk-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-HandlingRisk-extension}
 </t>
   </si>
   <si>
@@ -443,7 +443,7 @@
     <t>specialhandling</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SpecialHandling-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SpecialHandling-extension}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>Specimen.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Specimen)
 </t>
   </si>
   <si>
@@ -552,7 +552,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-patient|Group|http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://icaredata.org/icare/StructureDefinition/obf-Substance)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/argonaut/StructureDefinition/argo-patient|Group|http://fhir.org/guides/argonaut/StructureDefinition/argo-device|http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Substance)
 </t>
   </si>
   <si>
@@ -779,7 +779,7 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Laterality-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
@@ -796,7 +796,7 @@
     <t>anatomicalorientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -1036,7 +1036,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://icaredata.org/icare/StructureDefinition/obf-Substance)</t>
+Reference(http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-Substance)</t>
   </si>
   <si>
     <t>Additive associated with container</t>
